--- a/PriceChecker/tescik.xlsx
+++ b/PriceChecker/tescik.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Nazwa</t>
   </si>
@@ -37,12 +37,6 @@
     <t xml:space="preserve">Komentarz</t>
   </si>
   <si>
-    <t xml:space="preserve">Manabarbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dryad arbor</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferno Titan</t>
   </si>
 </sst>
 </file>
@@ -184,15 +175,15 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -220,37 +211,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1046624" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046625" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046626" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046627" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046628" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
